--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1674498097298499, -0.013183671409045911, -0.04628084952828638, -0.029934322614901202, -0.016852354190925668, 0.1729298857312265, 0.3035490714844914, 0.18262593962261844, 0.005472362640659067, -0.05167763796870478, -0.031456656675643464, -0.018616219420696006, 0.17558604414281315, 0.3479117965367412, 0.13423120701662838, -0.031014204624913354, -0.048288995162800934, -0.0474833872977779, -0.036178465186397106]</t>
+    <t>[1.0, 0.1536012065535299, 0.0012439685632319988, -0.037056101619989124, -0.02865760059285038, -0.01038472944364264, 0.17359098591165462, 0.2885080160503216, 0.18793792505321497, 0.01625339526336294, -0.04764864450084378, -0.027497450824874446, -0.010946862986865324, 0.17607948099546364, 0.34925584140362564, 0.13864730807185216, -0.023296855114161033, -0.044810053048712876, -0.03918253010528676, -0.03029234865368284]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.16811469737224494, -0.008937768644628155, -0.04090467244627579, -0.025171643756092973, -0.01303701346772409, 0.17245055597509754, 0.29912170194702986, 0.18196495549946684, 0.00730175862572339, -0.04729621091876375, -0.02539587997651757, -0.016898418306406933, 0.1754246221566118, 0.34318480086001524, 0.1317063186275602, -0.02839029055072811, -0.04475012987006419, -0.04380919392537788, -0.03204470106182204]</t>
+    <t>[1.0, 0.1535762820574648, 0.0024096120938944506, -0.03441156081150587, -0.025257762548446302, -0.009542937316900492, 0.17195175349112482, 0.2850916442992038, 0.1858499185421701, 0.015623280303192136, -0.04563596799738653, -0.023817697934165532, -0.01111192415821838, 0.17654215191485642, 0.3456673874728987, 0.13571044752236783, -0.022402907311184363, -0.04331084825293218, -0.03764466228081494, -0.027885455292340638]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>9860.5</v>
+        <v>6442</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.356209313247299</v>
+        <v>-0.839970414471177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01881335553529419</v>
+        <v>-0.04858657878081703</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5093.173399447834</v>
+        <v>5248.842441826321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.007428571428571</v>
+        <v>1.068939393939394</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.8265605979962498</v>
+        <v>-2.605820638354445</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.08517015475193113</v>
+        <v>-0.1295449989881216</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5164.906242224657</v>
+        <v>5470.890560088196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1.996784302007529</v>
+        <v>-3.016454347885402</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.07353342375068327</v>
+        <v>0.04570203215659095</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5020.679346452037</v>
+        <v>5011.943755968175</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1536012065535299, 0.0012439685632319988, -0.037056101619989124, -0.02865760059285038, -0.01038472944364264, 0.17359098591165462, 0.2885080160503216, 0.18793792505321497, 0.01625339526336294, -0.04764864450084378, -0.027497450824874446, -0.010946862986865324, 0.17607948099546364, 0.34925584140362564, 0.13864730807185216, -0.023296855114161033, -0.044810053048712876, -0.03918253010528676, -0.03029234865368284]</t>
+    <t>[0.9999999999999999, 0.1531552292575467, -0.0029520789047667085, -0.041004015630244806, -0.03344960914253515, -0.014257100032814472, 0.17240913337606406, 0.2894059632974835, 0.1879187042854853, 0.014182847186769832, -0.04921939038438452, -0.03016981956031537, -0.013501289182651316, 0.17623126613779153, 0.34956871190031946, 0.13852488122985424, -0.025521373524542923, -0.04776481075920933, -0.041778119301518354, -0.03172153865535137]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1535762820574648, 0.0024096120938944506, -0.03441156081150587, -0.025257762548446302, -0.009542937316900492, 0.17195175349112482, 0.2850916442992038, 0.1858499185421701, 0.015623280303192136, -0.04563596799738653, -0.023817697934165532, -0.01111192415821838, 0.17654215191485642, 0.3456673874728987, 0.13571044752236783, -0.022402907311184363, -0.04331084825293218, -0.03764466228081494, -0.027885455292340638]</t>
+    <t>[1.0, 0.1520341384828875, -0.0022602579685163603, -0.03961529943471662, -0.03120970704849033, -0.013513984579079864, 0.1716777250660928, 0.2866571277883445, 0.1873515835670389, 0.014436157335517803, -0.047821122922222827, -0.028514731814409278, -0.012892815693745004, 0.17599886519482436, 0.3475954608787413, 0.13757785876007295, -0.024129560676037366, -0.046026283603706676, -0.040212026850117204, -0.030529404596876853]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.839970414471177</v>
+        <v>-0.8325996345274745</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.04858657878081703</v>
+        <v>-2.160574131199933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5248.842441826321</v>
+        <v>5250.041118320721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-2.605820638354445</v>
+        <v>-1.456256747908645</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.1295449989881216</v>
+        <v>-4.544239728252996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5470.890560088196</v>
+        <v>5477.099820234803</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-3.016454347885402</v>
+        <v>-3.232994079944983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04570203215659095</v>
+        <v>3.217338853904733</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5011.943755968175</v>
+        <v>5012.011607033361</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.16696568902177342, -0.014470639150659291, -0.04750820525525331, -0.031334422937920874, -0.017925313407532836, 0.1724021869715656, 0.30319423881304414, 0.18243175542821016, 0.0050414332897453975, -0.05207061512450766, -0.03208922656532199, -0.01920535162456686, 0.1753658020670086, 0.3475049497006113, 0.13399170991341458, -0.03148012587852528, -0.04882127429517804, -0.047973521753812046, -0.0364892686131885]</t>
+    <t>[1.0, 0.1674498097298499, -0.013183671409045911, -0.04628084952828638, -0.029934322614901202, -0.016852354190925668, 0.1729298857312265, 0.3035490714844914, 0.18262593962261844, 0.005472362640659067, -0.05167763796870478, -0.031456656675643464, -0.018616219420696006, 0.17558604414281315, 0.3479117965367412, 0.13423120701662838, -0.031014204624913354, -0.048288995162800934, -0.0474833872977779, -0.036178465186397106]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.16620056510592138, -0.01375103055682882, -0.04638606150272809, -0.030075610856173156, -0.01736523398669454, 0.1718106633535454, 0.30106936244783833, 0.18215052857736552, 0.005179676860443165, -0.05112605921880047, -0.031173970654491682, -0.018899205193662772, 0.17480477727204666, 0.3458312094534112, 0.1331107070689694, -0.030756165114750076, -0.04775535692473361, -0.046972179928386634, -0.035780957739345705]</t>
+    <t>[1.0, 0.16811469737224494, -0.008937768644628155, -0.04090467244627579, -0.025171643756092973, -0.01303701346772409, 0.17245055597509754, 0.29912170194702986, 0.18196495549946684, 0.00730175862572339, -0.04729621091876375, -0.02539587997651757, -0.016898418306406933, 0.1754246221566118, 0.34318480086001524, 0.1317063186275602, -0.02839029055072811, -0.04475012987006419, -0.04380919392537788, -0.03204470106182204]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3563111565518848</v>
+        <v>0.356209313247299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-1.232455608768714</v>
+        <v>-0.01881335553529419</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5093.141725468569</v>
+        <v>5093.173399447834</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.2330051527731107</v>
+        <v>-0.8265605979962498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-3.294177896925214</v>
+        <v>-0.08517015475193113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5167.264022006269</v>
+        <v>5164.906242224657</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1.291009052918172</v>
+        <v>-1.996784302007529</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2.39843605431019</v>
+        <v>0.07353342375068327</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5022.62004448553</v>
+        <v>5020.679346452037</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/copper-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1674498097298499, -0.013183671409045911, -0.04628084952828638, -0.029934322614901202, -0.016852354190925668, 0.1729298857312265, 0.3035490714844914, 0.18262593962261844, 0.005472362640659067, -0.05167763796870478, -0.031456656675643464, -0.018616219420696006, 0.17558604414281315, 0.3479117965367412, 0.13423120701662838, -0.031014204624913354, -0.048288995162800934, -0.0474833872977779, -0.036178465186397106]</t>
+    <t>[1.0, 0.16744980972984988, -0.013183671409045904, -0.046280849528286344, -0.02993432261490117, -0.016852354190925668, 0.17292988573122658, 0.3035490714844914, 0.18262593962261847, 0.005472362640659085, -0.05167763796870477, -0.031456656675643443, -0.01861621942069601, 0.17558604414281312, 0.3479117965367412, 0.13423120701662844, -0.03101420462491335, -0.04828899516280094, -0.04748338729777791, -0.03617846518639712]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.16811469737224494, -0.008937768644628155, -0.04090467244627579, -0.025171643756092973, -0.01303701346772409, 0.17245055597509754, 0.29912170194702986, 0.18196495549946684, 0.00730175862572339, -0.04729621091876375, -0.02539587997651757, -0.016898418306406933, 0.1754246221566118, 0.34318480086001524, 0.1317063186275602, -0.02839029055072811, -0.04475012987006419, -0.04380919392537788, -0.03204470106182204]</t>
+    <t>[1.0, 0.16811469737224488, -0.00893776864462818, -0.04090467244627579, -0.02517164375609298, -0.01303701346772406, 0.17245055597509756, 0.29912170194702986, 0.18196495549946679, 0.007301758625723426, -0.04729621091876376, -0.025395879976517585, -0.016898418306406936, 0.1754246221566118, 0.3431848008600154, 0.1317063186275602, -0.028390290550728094, -0.04475012987006417, -0.043809193925377875, -0.03204470106182202]</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.01881335553529419</v>
+        <v>-0.01881335553529425</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5093.173399447834</v>
+        <v>5093.173399447835</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.007428571428571</v>
+        <v>0.5018502704241389</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.8265605979962498</v>
+        <v>-0.82656059799625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.08517015475193113</v>
+        <v>-0.08517015475193106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5164.906242224657</v>
+        <v>5164.906242224653</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1.996784302007529</v>
+        <v>-1.996784302007517</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.07353342375068327</v>
+        <v>0.07353342375068328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5020.679346452037</v>
+        <v>5020.679346452038</v>
       </c>
     </row>
     <row r="10" spans="1:2">
